--- a/va_facility_data_2025-02-20/Panama City Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Panama%20City%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Panama City Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Panama%20City%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rdf84cc72d3ab47789f7c318f37ee1dfc"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R672d644772eb45dc8c178cf7928b4f9a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R99c73c4ff6324e4288e88488e3a12534"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R1bce0701db8b4680bb01f20b2cfcff36"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R74e71fd2d3064335bfd1a36aac6be8fd"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb62f8a6f2f3a4026ad6edfc446f16482"/>
   </x:sheets>
 </x:workbook>
 </file>
